--- a/data/trans_camb/P41A_R2-Edad-trans_camb.xlsx
+++ b/data/trans_camb/P41A_R2-Edad-trans_camb.xlsx
@@ -655,7 +655,7 @@
         <v>11.3730529653524</v>
       </c>
       <c r="H4" s="5" t="n">
-        <v>-7.353424673522974</v>
+        <v>-7.353424673522957</v>
       </c>
       <c r="I4" s="5" t="n">
         <v>10.08852659722953</v>
@@ -675,31 +675,31 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.5080522374873424</v>
+        <v>1.12700919532145</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-0.1853031096800893</v>
+        <v>-0.2435497390505026</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>7.100426608839394</v>
+        <v>7.620182946662989</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>6.34173399965132</v>
+        <v>6.636918390674454</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>4.557209750127879</v>
+        <v>4.961753328018579</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>-19.55558514759227</v>
+        <v>-18.05935672756224</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>5.222115782292359</v>
+        <v>5.422810795020169</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>4.272891928706719</v>
+        <v>3.649150382321396</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>-1.545710749964287</v>
+        <v>-1.963104048525979</v>
       </c>
     </row>
     <row r="6">
@@ -710,31 +710,31 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>12.9788029097641</v>
+        <v>13.83973980727539</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>12.54541012605246</v>
+        <v>13.13687814082668</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>27.58829849387811</v>
+        <v>27.89694244266712</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>19.29976413410164</v>
+        <v>19.8620290543784</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>17.46621868232544</v>
+        <v>17.67786034074669</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>3.662703355535226</v>
+        <v>3.693777757118907</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>15.00196841375243</v>
+        <v>14.78812797621531</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>14.23570718567984</v>
+        <v>12.94642179232484</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>13.92712174613544</v>
+        <v>13.87627483739606</v>
       </c>
     </row>
     <row r="7">
@@ -760,7 +760,7 @@
         <v>0.2377096328085504</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>-0.153694868418677</v>
+        <v>-0.1536948684186766</v>
       </c>
       <c r="I7" s="6" t="n">
         <v>0.196899300129053</v>
@@ -780,31 +780,31 @@
         </is>
       </c>
       <c r="C8" s="6" t="n">
-        <v>0.008716903264054429</v>
+        <v>0.02021876789406065</v>
       </c>
       <c r="D8" s="6" t="n">
-        <v>-0.007030832354116088</v>
+        <v>-0.00395934863981513</v>
       </c>
       <c r="E8" s="6" t="n">
-        <v>0.1226343843772746</v>
+        <v>0.130897854011445</v>
       </c>
       <c r="F8" s="6" t="n">
-        <v>0.125755450304509</v>
+        <v>0.129603528349538</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.09254748779555755</v>
+        <v>0.0972425207987995</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>-0.3901497647380808</v>
+        <v>-0.3634321717962057</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.09843432048549151</v>
+        <v>0.1018857328995391</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>0.07843803963493565</v>
+        <v>0.06939897836107903</v>
       </c>
       <c r="K8" s="6" t="n">
-        <v>-0.03058357903486501</v>
+        <v>-0.03650188104206865</v>
       </c>
     </row>
     <row r="9">
@@ -815,31 +815,31 @@
         </is>
       </c>
       <c r="C9" s="6" t="n">
-        <v>0.2538769874023079</v>
+        <v>0.2723707841327738</v>
       </c>
       <c r="D9" s="6" t="n">
-        <v>0.2400454121620363</v>
+        <v>0.2553379999423037</v>
       </c>
       <c r="E9" s="6" t="n">
-        <v>0.5226559972597505</v>
+        <v>0.5310553950519291</v>
       </c>
       <c r="F9" s="6" t="n">
-        <v>0.4350858384634453</v>
+        <v>0.4488178843821226</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>0.3882397858095479</v>
+        <v>0.39740649550539</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.07578288511074009</v>
+        <v>0.08290562847403078</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.3068366379681217</v>
+        <v>0.3036427107840469</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>0.2915265268002477</v>
+        <v>0.26539912158747</v>
       </c>
       <c r="K9" s="6" t="n">
-        <v>0.2782955570178104</v>
+        <v>0.2811232813726016</v>
       </c>
     </row>
     <row r="10">
@@ -878,7 +878,7 @@
         <v>-0.03091312564061921</v>
       </c>
       <c r="K10" s="5" t="n">
-        <v>-3.598867901522695</v>
+        <v>-3.598867901522684</v>
       </c>
     </row>
     <row r="11">
@@ -889,31 +889,31 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-2.719786154134857</v>
+        <v>-2.622838138244579</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-6.652777306211043</v>
+        <v>-6.887054680977439</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>-7.30179053229313</v>
+        <v>-7.47156204310264</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>-5.746415717195803</v>
+        <v>-6.300269504472227</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>-3.113368878705026</v>
+        <v>-3.613781515780961</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>-13.04447320787544</v>
+        <v>-12.78979923656907</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>-2.924071084889486</v>
+        <v>-3.113581555398077</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>-3.372229255762159</v>
+        <v>-3.784915324141675</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>-8.35284409761587</v>
+        <v>-8.320761795624284</v>
       </c>
     </row>
     <row r="12">
@@ -924,31 +924,31 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>6.260203396723679</v>
+        <v>7.120814743980588</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>3.614793280638588</v>
+        <v>3.389159359319504</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>5.944504756883298</v>
+        <v>6.402025113299397</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>4.684005951205041</v>
+        <v>5.145290840790358</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>7.349211591051537</v>
+        <v>7.385829785850902</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.02208978838652203</v>
+        <v>0.725350498700675</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>3.884968368519948</v>
+        <v>4.16946671890563</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>3.538945536550666</v>
+        <v>3.662226665982304</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.7590318650594204</v>
+        <v>0.9120349915030351</v>
       </c>
     </row>
     <row r="13">
@@ -983,7 +983,7 @@
         <v>-0.0004303946332273376</v>
       </c>
       <c r="K13" s="6" t="n">
-        <v>-0.05010601155368877</v>
+        <v>-0.05010601155368861</v>
       </c>
     </row>
     <row r="14">
@@ -994,31 +994,31 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>-0.03520953911904046</v>
+        <v>-0.03470330655962461</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>-0.08669990993951111</v>
+        <v>-0.09076117388317195</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>-0.09746536754643681</v>
+        <v>-0.100016111972264</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>-0.08126759166668278</v>
+        <v>-0.08833824946821792</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>-0.04383732725909967</v>
+        <v>-0.0494931875544567</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>-0.1844128968472919</v>
+        <v>-0.1790747055605522</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>-0.04005766074766604</v>
+        <v>-0.04231711508557733</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>-0.04632409713242759</v>
+        <v>-0.05101098270045154</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>-0.1141786194348653</v>
+        <v>-0.1153104874421476</v>
       </c>
     </row>
     <row r="15">
@@ -1029,31 +1029,31 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>0.0871921827237397</v>
+        <v>0.1001029983695286</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>0.04881820836793839</v>
+        <v>0.04799038486154938</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>0.08217940899991444</v>
+        <v>0.08815265421044158</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>0.07068862475946545</v>
+        <v>0.07750540669188083</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>0.1119798963455523</v>
+        <v>0.1100240243500436</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>-9.71968438376671e-05</v>
+        <v>0.01191771859203181</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.0552773220015035</v>
+        <v>0.05954677069720347</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>0.05028396895855831</v>
+        <v>0.05208906456035062</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>0.01107211759679216</v>
+        <v>0.01280987004746292</v>
       </c>
     </row>
     <row r="16">
@@ -1103,31 +1103,31 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>-5.923210493902734</v>
+        <v>-6.090276583864209</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>-6.548973407504803</v>
+        <v>-6.238309225230252</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>-12.3024343286076</v>
+        <v>-12.95901290803924</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>-12.78017959942338</v>
+        <v>-12.71000649267983</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>-7.929494990898619</v>
+        <v>-8.182020733337259</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>-11.78116349024008</v>
+        <v>-11.68563749657844</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>-7.971156201568197</v>
+        <v>-8.124757030627054</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>-6.021573882737155</v>
+        <v>-5.932833330742377</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>-10.71244664700311</v>
+        <v>-10.81261814765944</v>
       </c>
     </row>
     <row r="18">
@@ -1138,31 +1138,31 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>3.99489657425774</v>
+        <v>4.001733096652887</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>3.727925848259237</v>
+        <v>3.40004041557465</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>-0.9723095985771057</v>
+        <v>-0.8537085006247417</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>-2.696554654049032</v>
+        <v>-2.047932763892299</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>1.452164835094047</v>
+        <v>1.756036730675404</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>-1.752048065926285</v>
+        <v>-1.647567211045798</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>-0.8481442221575834</v>
+        <v>-0.8204725442002734</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>1.022695927861525</v>
+        <v>1.351382822619809</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>-2.997914631450399</v>
+        <v>-2.919411938349664</v>
       </c>
     </row>
     <row r="19">
@@ -1208,31 +1208,31 @@
         </is>
       </c>
       <c r="C20" s="6" t="n">
-        <v>-0.07738025398462016</v>
+        <v>-0.08006229336881798</v>
       </c>
       <c r="D20" s="6" t="n">
-        <v>-0.0860387324291918</v>
+        <v>-0.08147971742631252</v>
       </c>
       <c r="E20" s="6" t="n">
-        <v>-0.1607398727137899</v>
+        <v>-0.1704277010457271</v>
       </c>
       <c r="F20" s="6" t="n">
-        <v>-0.1708173925938713</v>
+        <v>-0.1709594956359457</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>-0.106904652091287</v>
+        <v>-0.1088245132438401</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>-0.1598954721720681</v>
+        <v>-0.1585355747223509</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>-0.1059092103928747</v>
+        <v>-0.1083027810106822</v>
       </c>
       <c r="J20" s="6" t="n">
-        <v>-0.08017232763836495</v>
+        <v>-0.07928486682128549</v>
       </c>
       <c r="K20" s="6" t="n">
-        <v>-0.143984554279305</v>
+        <v>-0.1448405523727664</v>
       </c>
     </row>
     <row r="21">
@@ -1243,31 +1243,31 @@
         </is>
       </c>
       <c r="C21" s="6" t="n">
-        <v>0.05491911748422866</v>
+        <v>0.05501606478308391</v>
       </c>
       <c r="D21" s="6" t="n">
-        <v>0.05219855815143074</v>
+        <v>0.04746040635252698</v>
       </c>
       <c r="E21" s="6" t="n">
-        <v>-0.01343444961787963</v>
+        <v>-0.01294718859649899</v>
       </c>
       <c r="F21" s="6" t="n">
-        <v>-0.03878716792818582</v>
+        <v>-0.02966532502201412</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>0.01988789657517681</v>
+        <v>0.02518097974792825</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>-0.02668944884299842</v>
+        <v>-0.02322953837227781</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>-0.0120059886355812</v>
+        <v>-0.01162860569927575</v>
       </c>
       <c r="J21" s="6" t="n">
-        <v>0.01430893509037137</v>
+        <v>0.01921965785093841</v>
       </c>
       <c r="K21" s="6" t="n">
-        <v>-0.04197527298704982</v>
+        <v>-0.04074700159795951</v>
       </c>
     </row>
     <row r="22">
@@ -1317,31 +1317,31 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>-10.71197243034757</v>
+        <v>-10.09366412007469</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>-15.70345729515962</v>
+        <v>-16.25798217455247</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>-10.50302156297405</v>
+        <v>-11.36655914132258</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>-8.437715951347464</v>
+        <v>-8.18330867479956</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>-3.39858930563837</v>
+        <v>-3.461514549644008</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>0.3281546685877304</v>
+        <v>-0.2918297009299639</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>-8.160969227822862</v>
+        <v>-7.913269776573677</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>-8.661101259551055</v>
+        <v>-8.429554197130548</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>-3.835983746856458</v>
+        <v>-3.824790858487684</v>
       </c>
     </row>
     <row r="24">
@@ -1352,31 +1352,31 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>1.421243403232009</v>
+        <v>2.674280284516542</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>-4.124585520333627</v>
+        <v>-3.410195661383977</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>1.803325148955309</v>
+        <v>1.959466895257876</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>3.506716871525079</v>
+        <v>3.449883171079607</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>7.731071543075103</v>
+        <v>7.790888966150048</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>10.59087895992903</v>
+        <v>10.66915108915016</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>0.8353292955146135</v>
+        <v>0.7625466185483892</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>0.1741385237934683</v>
+        <v>-0.09823399975593564</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>4.392539452074615</v>
+        <v>4.309559220574365</v>
       </c>
     </row>
     <row r="25">
@@ -1422,31 +1422,31 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>-0.1722134408821321</v>
+        <v>-0.1643934900167767</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>-0.2567190069190328</v>
+        <v>-0.2639414092537223</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>-0.1696886005451473</v>
+        <v>-0.1846701694425143</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>-0.2056307852505275</v>
+        <v>-0.2027235054995566</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>-0.08569781745789792</v>
+        <v>-0.08573054298206427</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.007075171797239095</v>
+        <v>-0.005650565831416293</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>-0.1625224167904152</v>
+        <v>-0.1556529600490237</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>-0.1724364410510233</v>
+        <v>-0.1663119697648824</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>-0.07623758920384634</v>
+        <v>-0.07620298620777403</v>
       </c>
     </row>
     <row r="27">
@@ -1457,31 +1457,31 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>0.02661078147332269</v>
+        <v>0.04814020568483313</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>-0.07531339061757171</v>
+        <v>-0.07261850601694594</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>0.03240857041210705</v>
+        <v>0.03510767238583121</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>0.1000411578594244</v>
+        <v>0.09695881103422363</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>0.2248763660819353</v>
+        <v>0.2253441996051537</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.3123528698542859</v>
+        <v>0.3160519769027255</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.01801644871881063</v>
+        <v>0.01702662029098422</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>0.003270774892836841</v>
+        <v>-0.0008146656293006416</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>0.09591832488999563</v>
+        <v>0.09503642017088344</v>
       </c>
     </row>
     <row r="28">
@@ -1511,7 +1511,7 @@
         <v>0.1961460717274287</v>
       </c>
       <c r="H28" s="5" t="n">
-        <v>3.030136522043041</v>
+        <v>3.03013652204304</v>
       </c>
       <c r="I28" s="5" t="n">
         <v>1.041598456077347</v>
@@ -1520,7 +1520,7 @@
         <v>3.036599416033162</v>
       </c>
       <c r="K28" s="5" t="n">
-        <v>2.9425345509367</v>
+        <v>2.942534550936698</v>
       </c>
     </row>
     <row r="29">
@@ -1531,31 +1531,31 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>-1.991781821707703</v>
+        <v>-1.825295798438692</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>1.176571441179112</v>
+        <v>1.00324327010538</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>-1.612362175618145</v>
+        <v>-1.782998728052788</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>-3.070260346402177</v>
+        <v>-3.093730292207109</v>
       </c>
       <c r="G29" s="5" t="n">
-        <v>-2.421473710925582</v>
+        <v>-2.55682574566096</v>
       </c>
       <c r="H29" s="5" t="n">
-        <v>0.2565126302189586</v>
+        <v>0.07914954954733508</v>
       </c>
       <c r="I29" s="5" t="n">
-        <v>-1.474727397228105</v>
+        <v>-1.843105003892875</v>
       </c>
       <c r="J29" s="5" t="n">
-        <v>-0.06366711856885832</v>
+        <v>0.3108799072921966</v>
       </c>
       <c r="K29" s="5" t="n">
-        <v>0.484163696467317</v>
+        <v>0.312561801201759</v>
       </c>
     </row>
     <row r="30">
@@ -1566,31 +1566,31 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>7.376317904110537</v>
+        <v>7.681048897121823</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>10.65798469434064</v>
+        <v>10.34128740191991</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>6.870191429594636</v>
+        <v>7.210392729442853</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>2.296677883446893</v>
+        <v>2.495801774617406</v>
       </c>
       <c r="G30" s="5" t="n">
-        <v>3.094223660417668</v>
+        <v>2.995804398307469</v>
       </c>
       <c r="H30" s="5" t="n">
-        <v>5.608152850765253</v>
+        <v>5.820155970969358</v>
       </c>
       <c r="I30" s="5" t="n">
-        <v>4.027777272816654</v>
+        <v>3.805392413383073</v>
       </c>
       <c r="J30" s="5" t="n">
-        <v>5.735964957522959</v>
+        <v>5.935259110115201</v>
       </c>
       <c r="K30" s="5" t="n">
-        <v>5.649389954310926</v>
+        <v>5.568045642081169</v>
       </c>
     </row>
     <row r="31">
@@ -1616,7 +1616,7 @@
         <v>0.04506797566982466</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.6962266327793418</v>
+        <v>0.6962266327793415</v>
       </c>
       <c r="I31" s="6" t="n">
         <v>0.1408606535689377</v>
@@ -1625,7 +1625,7 @@
         <v>0.4106547737986689</v>
       </c>
       <c r="K31" s="6" t="n">
-        <v>0.3979339039682151</v>
+        <v>0.3979339039682149</v>
       </c>
     </row>
     <row r="32">
@@ -1636,31 +1636,31 @@
         </is>
       </c>
       <c r="C32" s="6" t="n">
-        <v>-0.1623246846647221</v>
+        <v>-0.1575496217104359</v>
       </c>
       <c r="D32" s="6" t="n">
-        <v>0.08685833648718903</v>
+        <v>0.06705359097379243</v>
       </c>
       <c r="E32" s="6" t="n">
-        <v>-0.1429317699924412</v>
+        <v>-0.1469474839534812</v>
       </c>
       <c r="F32" s="6" t="n">
-        <v>-0.5406527062567577</v>
+        <v>-0.5472189526929497</v>
       </c>
       <c r="G32" s="6" t="n">
-        <v>-0.4289153917061467</v>
+        <v>-0.4511308917058811</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.02504968450110227</v>
+        <v>6.692208982469073e-05</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>-0.183771710369127</v>
+        <v>-0.2192450267888899</v>
       </c>
       <c r="J32" s="6" t="n">
-        <v>-0.007214758324043265</v>
+        <v>0.03137844331597742</v>
       </c>
       <c r="K32" s="6" t="n">
-        <v>0.04888085903677308</v>
+        <v>0.03426875032375245</v>
       </c>
     </row>
     <row r="33">
@@ -1671,31 +1671,31 @@
         </is>
       </c>
       <c r="C33" s="6" t="n">
-        <v>0.9179015370226983</v>
+        <v>0.925134384539406</v>
       </c>
       <c r="D33" s="6" t="n">
-        <v>1.338424144360092</v>
+        <v>1.171022794783471</v>
       </c>
       <c r="E33" s="6" t="n">
-        <v>0.8077047705096977</v>
+        <v>0.8039472315783194</v>
       </c>
       <c r="F33" s="6" t="n">
-        <v>0.7911337658752593</v>
+        <v>0.8654694320889115</v>
       </c>
       <c r="G33" s="6" t="n">
-        <v>1.094613737945099</v>
+        <v>0.9910038509239029</v>
       </c>
       <c r="H33" s="6" t="n">
-        <v>1.999154216516518</v>
+        <v>2.175710947181617</v>
       </c>
       <c r="I33" s="6" t="n">
-        <v>0.6727393778825913</v>
+        <v>0.6260375975558649</v>
       </c>
       <c r="J33" s="6" t="n">
-        <v>0.9621022226271891</v>
+        <v>0.9811496937087304</v>
       </c>
       <c r="K33" s="6" t="n">
-        <v>0.9488419336204689</v>
+        <v>0.9096479468629461</v>
       </c>
     </row>
     <row r="34">
@@ -1749,7 +1749,7 @@
         <v>0</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>1.104625035232974</v>
+        <v>1.242603294643807</v>
       </c>
       <c r="F35" s="5" t="n">
         <v>0</v>
@@ -1758,16 +1758,16 @@
         <v>0</v>
       </c>
       <c r="H35" s="5" t="n">
-        <v>0.7083710045499992</v>
+        <v>0.7452237971689692</v>
       </c>
       <c r="I35" s="5" t="n">
         <v>0</v>
       </c>
       <c r="J35" s="5" t="n">
-        <v>0.2586452259733621</v>
+        <v>0.2530085880309768</v>
       </c>
       <c r="K35" s="5" t="n">
-        <v>1.266554167783299</v>
+        <v>1.269772058800078</v>
       </c>
     </row>
     <row r="36">
@@ -1779,28 +1779,28 @@
       </c>
       <c r="C36" s="5" t="inlineStr"/>
       <c r="D36" s="5" t="n">
-        <v>3.038456549561517</v>
+        <v>2.779959724937606</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>4.016064809473527</v>
+        <v>4.00138388024397</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>1.711056660692973</v>
+        <v>1.934065930221837</v>
       </c>
       <c r="G36" s="5" t="n">
-        <v>2.73427774406386</v>
+        <v>2.759459178788337</v>
       </c>
       <c r="H36" s="5" t="n">
-        <v>2.975694132184467</v>
+        <v>2.873793280836991</v>
       </c>
       <c r="I36" s="5" t="n">
-        <v>0.9742154466251093</v>
+        <v>1.005423632334946</v>
       </c>
       <c r="J36" s="5" t="n">
-        <v>1.944307271473691</v>
+        <v>1.95911960119211</v>
       </c>
       <c r="K36" s="5" t="n">
-        <v>3.028088241880568</v>
+        <v>3.049472885375883</v>
       </c>
     </row>
     <row r="37">
@@ -1935,25 +1935,25 @@
       <c r="C41" s="5" t="inlineStr"/>
       <c r="D41" s="5" t="inlineStr"/>
       <c r="E41" s="5" t="n">
-        <v>0.2712973344013363</v>
+        <v>0.2727096100382085</v>
       </c>
       <c r="F41" s="5" t="n">
-        <v>-2.906874664821255</v>
+        <v>-2.954709325393346</v>
       </c>
       <c r="G41" s="5" t="n">
-        <v>-3.216471124594701</v>
+        <v>-3.291202485250718</v>
       </c>
       <c r="H41" s="5" t="n">
-        <v>-2.491502427964126</v>
+        <v>-2.367092641258886</v>
       </c>
       <c r="I41" s="5" t="n">
-        <v>-2.047630320633882</v>
+        <v>-2.019393284259056</v>
       </c>
       <c r="J41" s="5" t="n">
-        <v>-2.223945545636711</v>
+        <v>-2.191777438510803</v>
       </c>
       <c r="K41" s="5" t="n">
-        <v>-1.152987110652384</v>
+        <v>-1.359223522546726</v>
       </c>
     </row>
     <row r="42">
@@ -1966,25 +1966,25 @@
       <c r="C42" s="5" t="inlineStr"/>
       <c r="D42" s="5" t="inlineStr"/>
       <c r="E42" s="5" t="n">
-        <v>2.325195623969581</v>
+        <v>2.237941561574927</v>
       </c>
       <c r="F42" s="5" t="n">
-        <v>0</v>
+        <v>-0.06840206374160906</v>
       </c>
       <c r="G42" s="5" t="n">
-        <v>-0.3452336110144424</v>
+        <v>-0.3463364141274577</v>
       </c>
       <c r="H42" s="5" t="n">
-        <v>0.8300863327177338</v>
+        <v>0.8379495046269244</v>
       </c>
       <c r="I42" s="5" t="n">
-        <v>-0.04692554385505091</v>
+        <v>-0.04354007245155055</v>
       </c>
       <c r="J42" s="5" t="n">
-        <v>-0.2398357428496115</v>
+        <v>-0.3557784988658809</v>
       </c>
       <c r="K42" s="5" t="n">
-        <v>0.9512198540255798</v>
+        <v>0.8915618665444327</v>
       </c>
     </row>
     <row r="43">
@@ -2032,13 +2032,11 @@
       <c r="E44" s="6" t="inlineStr"/>
       <c r="F44" s="6" t="inlineStr"/>
       <c r="G44" s="6" t="inlineStr"/>
-      <c r="H44" s="6" t="n">
-        <v>-1</v>
-      </c>
+      <c r="H44" s="6" t="inlineStr"/>
       <c r="I44" s="6" t="inlineStr"/>
       <c r="J44" s="6" t="inlineStr"/>
       <c r="K44" s="6" t="n">
-        <v>-0.8224018465345189</v>
+        <v>-0.8025405733921047</v>
       </c>
     </row>
     <row r="45">
@@ -2053,13 +2051,11 @@
       <c r="E45" s="6" t="inlineStr"/>
       <c r="F45" s="6" t="inlineStr"/>
       <c r="G45" s="6" t="inlineStr"/>
-      <c r="H45" s="6" t="n">
-        <v>3.207114173306681</v>
-      </c>
+      <c r="H45" s="6" t="inlineStr"/>
       <c r="I45" s="6" t="inlineStr"/>
       <c r="J45" s="6" t="inlineStr"/>
       <c r="K45" s="6" t="n">
-        <v>3.608784748791675</v>
+        <v>3.622269625207768</v>
       </c>
     </row>
     <row r="46">
@@ -2080,7 +2076,7 @@
         <v>-3.72837282628623</v>
       </c>
       <c r="E46" s="5" t="n">
-        <v>-8.270838092137584</v>
+        <v>-8.270838092137577</v>
       </c>
       <c r="F46" s="5" t="n">
         <v>-1.847834621650973</v>
@@ -2089,7 +2085,7 @@
         <v>-1.738302014535392</v>
       </c>
       <c r="H46" s="5" t="n">
-        <v>-5.783099999815478</v>
+        <v>-5.783099999815472</v>
       </c>
       <c r="I46" s="5" t="n">
         <v>-1.211840935855268</v>
@@ -2098,7 +2094,7 @@
         <v>-2.740755283910762</v>
       </c>
       <c r="K46" s="5" t="n">
-        <v>-6.968318147952102</v>
+        <v>-6.968318147952107</v>
       </c>
     </row>
     <row r="47">
@@ -2109,31 +2105,31 @@
         </is>
       </c>
       <c r="C47" s="5" t="n">
-        <v>-2.851091868563118</v>
+        <v>-2.768249119354077</v>
       </c>
       <c r="D47" s="5" t="n">
-        <v>-6.205542167326987</v>
+        <v>-6.087670276222276</v>
       </c>
       <c r="E47" s="5" t="n">
-        <v>-11.04050539855006</v>
+        <v>-10.97118471793632</v>
       </c>
       <c r="F47" s="5" t="n">
-        <v>-4.035393154261289</v>
+        <v>-4.206396276079222</v>
       </c>
       <c r="G47" s="5" t="n">
-        <v>-4.150915317353763</v>
+        <v>-4.348936433382661</v>
       </c>
       <c r="H47" s="5" t="n">
-        <v>-8.205982791542205</v>
+        <v>-8.318637633940755</v>
       </c>
       <c r="I47" s="5" t="n">
-        <v>-2.842285459433571</v>
+        <v>-2.939190287001344</v>
       </c>
       <c r="J47" s="5" t="n">
-        <v>-4.609027574562604</v>
+        <v>-4.566699649996807</v>
       </c>
       <c r="K47" s="5" t="n">
-        <v>-8.781266439514422</v>
+        <v>-8.789966444440742</v>
       </c>
     </row>
     <row r="48">
@@ -2144,31 +2140,31 @@
         </is>
       </c>
       <c r="C48" s="5" t="n">
-        <v>1.895832321814431</v>
+        <v>2.292047597580096</v>
       </c>
       <c r="D48" s="5" t="n">
-        <v>-1.20326149126077</v>
+        <v>-1.030757346726179</v>
       </c>
       <c r="E48" s="5" t="n">
-        <v>-5.511532924576199</v>
+        <v>-5.467087686847866</v>
       </c>
       <c r="F48" s="5" t="n">
-        <v>0.6035060543755907</v>
+        <v>0.3884227600264867</v>
       </c>
       <c r="G48" s="5" t="n">
-        <v>0.608190617190886</v>
+        <v>0.4490118806542686</v>
       </c>
       <c r="H48" s="5" t="n">
-        <v>-3.204555618025193</v>
+        <v>-3.548627452789218</v>
       </c>
       <c r="I48" s="5" t="n">
-        <v>0.5542515128460159</v>
+        <v>0.5858476673638897</v>
       </c>
       <c r="J48" s="5" t="n">
-        <v>-1.038466104754672</v>
+        <v>-1.031324372656839</v>
       </c>
       <c r="K48" s="5" t="n">
-        <v>-5.14808428735563</v>
+        <v>-4.974019642396263</v>
       </c>
     </row>
     <row r="49">
@@ -2185,7 +2181,7 @@
         <v>-0.07485953834553123</v>
       </c>
       <c r="E49" s="6" t="n">
-        <v>-0.1660647017226493</v>
+        <v>-0.1660647017226492</v>
       </c>
       <c r="F49" s="6" t="n">
         <v>-0.04562628112434481</v>
@@ -2194,7 +2190,7 @@
         <v>-0.04292172874396308</v>
       </c>
       <c r="H49" s="6" t="n">
-        <v>-0.1427948926111303</v>
+        <v>-0.1427948926111302</v>
       </c>
       <c r="I49" s="6" t="n">
         <v>-0.02687907481168621</v>
@@ -2203,7 +2199,7 @@
         <v>-0.0607909537770888</v>
       </c>
       <c r="K49" s="6" t="n">
-        <v>-0.1545598430195338</v>
+        <v>-0.154559843019534</v>
       </c>
     </row>
     <row r="50">
@@ -2214,31 +2210,31 @@
         </is>
       </c>
       <c r="C50" s="6" t="n">
-        <v>-0.05526911712023101</v>
+        <v>-0.05430415345161812</v>
       </c>
       <c r="D50" s="6" t="n">
-        <v>-0.1209891153417194</v>
+        <v>-0.1196981550374046</v>
       </c>
       <c r="E50" s="6" t="n">
-        <v>-0.2179165581262</v>
+        <v>-0.2168120634516432</v>
       </c>
       <c r="F50" s="6" t="n">
-        <v>-0.09784723824793476</v>
+        <v>-0.1016126090658372</v>
       </c>
       <c r="G50" s="6" t="n">
-        <v>-0.09841872493245782</v>
+        <v>-0.1039678705112305</v>
       </c>
       <c r="H50" s="6" t="n">
-        <v>-0.1966027312611244</v>
+        <v>-0.195002358189768</v>
       </c>
       <c r="I50" s="6" t="n">
-        <v>-0.06219249046692144</v>
+        <v>-0.06402292089782254</v>
       </c>
       <c r="J50" s="6" t="n">
-        <v>-0.1004704112049413</v>
+        <v>-0.09887847677192592</v>
       </c>
       <c r="K50" s="6" t="n">
-        <v>-0.1920758577887048</v>
+        <v>-0.1915604793484124</v>
       </c>
     </row>
     <row r="51">
@@ -2249,31 +2245,31 @@
         </is>
       </c>
       <c r="C51" s="6" t="n">
-        <v>0.03901020869595423</v>
+        <v>0.04602096640390718</v>
       </c>
       <c r="D51" s="6" t="n">
-        <v>-0.02484867213297309</v>
+        <v>-0.0219455578547528</v>
       </c>
       <c r="E51" s="6" t="n">
-        <v>-0.1139092449828231</v>
+        <v>-0.1137613477168301</v>
       </c>
       <c r="F51" s="6" t="n">
-        <v>0.01512125439156539</v>
+        <v>0.009794052669276958</v>
       </c>
       <c r="G51" s="6" t="n">
-        <v>0.01593799911625231</v>
+        <v>0.01082425843236778</v>
       </c>
       <c r="H51" s="6" t="n">
-        <v>-0.08280804835841264</v>
+        <v>-0.08824703557191665</v>
       </c>
       <c r="I51" s="6" t="n">
-        <v>0.01323660818471337</v>
+        <v>0.0131217982005389</v>
       </c>
       <c r="J51" s="6" t="n">
-        <v>-0.02354027910222393</v>
+        <v>-0.02340732295109574</v>
       </c>
       <c r="K51" s="6" t="n">
-        <v>-0.1160706615941709</v>
+        <v>-0.1132188924819691</v>
       </c>
     </row>
     <row r="52">
